--- a/resources/Tablas.xlsx
+++ b/resources/Tablas.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="19995" windowHeight="8190" activeTab="7"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="19995" windowHeight="8190" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="CONTROL" sheetId="1" r:id="rId1"/>
@@ -15,14 +15,15 @@
     <sheet name="M_ACCION" sheetId="6" r:id="rId6"/>
     <sheet name="INTEGRACION" sheetId="7" r:id="rId7"/>
     <sheet name="ERRORCOMPONENTE" sheetId="8" r:id="rId8"/>
-    <sheet name="Hoja9" sheetId="9" r:id="rId9"/>
+    <sheet name="MENSAJE ERROR TABLAS" sheetId="9" r:id="rId9"/>
+    <sheet name="MENSAJE SERVICIO TABLAS" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="89">
   <si>
     <t>Nombre Campo</t>
   </si>
@@ -160,13 +161,145 @@
   </si>
   <si>
     <t>COLOR</t>
+  </si>
+  <si>
+    <t>XML</t>
+  </si>
+  <si>
+    <t>INTEGRACION</t>
+  </si>
+  <si>
+    <t>M_ACCION</t>
+  </si>
+  <si>
+    <t>CLIENTE</t>
+  </si>
+  <si>
+    <t>SERVICIO</t>
+  </si>
+  <si>
+    <t>M_SERVICIO</t>
+  </si>
+  <si>
+    <t>M_ERROR</t>
+  </si>
+  <si>
+    <t>CONTROL</t>
+  </si>
+  <si>
+    <t>Tabla</t>
+  </si>
+  <si>
+    <t>Descripcion</t>
+  </si>
+  <si>
+    <t>BD INTERMEDIA</t>
+  </si>
+  <si>
+    <t>BD SERVIDOR</t>
+  </si>
+  <si>
+    <t>Cliente</t>
+  </si>
+  <si>
+    <t>CodigoAccion</t>
+  </si>
+  <si>
+    <t>RucSociedad</t>
+  </si>
+  <si>
+    <t>NumeroDocumento</t>
+  </si>
+  <si>
+    <t>RucProveedor</t>
+  </si>
+  <si>
+    <t>ruc</t>
+  </si>
+  <si>
+    <t>CodigoError</t>
+  </si>
+  <si>
+    <t>FechaError</t>
+  </si>
+  <si>
+    <t>Integracion</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>DESCRIPCIONERROR</t>
+  </si>
+  <si>
+    <t>FECHARERROR</t>
+  </si>
+  <si>
+    <t>DATE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ruc del cliente configurado en
+el monitor Cliente </t>
+  </si>
+  <si>
+    <t>Código identificador del tipo de documento</t>
+  </si>
+  <si>
+    <t>Ruc de la Sociedad del Documento</t>
+  </si>
+  <si>
+    <t>Numero del documento de acuerdo al tipo de este</t>
+  </si>
+  <si>
+    <t>Ruc del proveedor del documento</t>
+  </si>
+  <si>
+    <t>Código único que identifica al error  de un componente</t>
+  </si>
+  <si>
+    <t>Descripción del error</t>
+  </si>
+  <si>
+    <t>Fecha en la que se registró el error para su envío</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tipo de integracion  configurado en
+el monitor Cliente </t>
+  </si>
+  <si>
+    <t>MENSAJE ERROR</t>
+  </si>
+  <si>
+    <t>MENSAJE SERVICIO</t>
+  </si>
+  <si>
+    <t>Servicio</t>
+  </si>
+  <si>
+    <t>Estado</t>
+  </si>
+  <si>
+    <t>Nombre del servicio 
+monitoreado</t>
+  </si>
+  <si>
+    <t>Estado del servicio</t>
+  </si>
+  <si>
+    <t>Descripción del estado del servicio</t>
+  </si>
+  <si>
+    <t>Tipo de integración configurado en Monitor Cliente</t>
+  </si>
+  <si>
+    <t>Ruc del cliente configurado en Monitor Cliente</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -184,6 +317,20 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -359,7 +506,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -368,21 +515,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
@@ -392,6 +524,90 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -693,10 +909,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:F21"/>
+  <dimension ref="B1:F21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -704,6 +920,15 @@
     <col min="3" max="3" width="15.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C2" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="25"/>
+    </row>
     <row r="3" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C4" s="1" t="s">
@@ -720,114 +945,361 @@
       </c>
     </row>
     <row r="5" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C5" s="3"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="5"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="22"/>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="D6" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10" t="s">
+      <c r="E6" s="5"/>
+      <c r="F6" s="5" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9" t="s">
+      <c r="E7" s="4"/>
+      <c r="F7" s="4" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" s="9">
-        <v>3</v>
-      </c>
-      <c r="F8" s="9" t="s">
+      <c r="D8" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="4">
+        <v>5</v>
+      </c>
+      <c r="F8" s="4" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E9" s="9">
-        <v>1024</v>
-      </c>
-      <c r="F9" s="9" t="s">
+      <c r="D9" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="9" t="s">
+      <c r="D10" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9" t="s">
+      <c r="E10" s="4"/>
+      <c r="F10" s="4" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="18" spans="3:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="19" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C19" s="12" t="s">
+      <c r="C19" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="D19" s="12" t="s">
+      <c r="D19" s="7" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="20" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C20" s="13" t="s">
+      <c r="C20" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="D20" s="10"/>
+      <c r="D20" s="5"/>
     </row>
     <row r="21" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C21" s="13" t="s">
+      <c r="C21" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="D21" s="11"/>
+      <c r="D21" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="C5:F5"/>
+    <mergeCell ref="C2:F2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C3:N11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.42578125" customWidth="1"/>
+    <col min="5" max="5" width="4.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="3:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="3:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C4" s="32" t="s">
+        <v>81</v>
+      </c>
+      <c r="D4" s="33"/>
+      <c r="E4" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="F4" s="30"/>
+      <c r="G4" s="30"/>
+      <c r="H4" s="31"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="K4" s="24"/>
+      <c r="L4" s="24"/>
+      <c r="M4" s="25"/>
+      <c r="N4" s="10"/>
+    </row>
+    <row r="5" spans="3:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C5" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="G5" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="H5" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="I5" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="3:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C6" s="34"/>
+      <c r="D6" s="35"/>
+      <c r="E6" s="36"/>
+      <c r="F6" s="37"/>
+      <c r="G6" s="37"/>
+      <c r="H6" s="38"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="20"/>
+      <c r="K6" s="21"/>
+      <c r="L6" s="21"/>
+      <c r="M6" s="22"/>
+      <c r="N6" s="3"/>
+    </row>
+    <row r="7" spans="3:14" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="C7" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="D7" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="E7" s="4"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="15"/>
+      <c r="J7" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="K7" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="L7" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="M7" s="17">
+        <v>15</v>
+      </c>
+      <c r="N7" s="16" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="3:14" ht="39" x14ac:dyDescent="0.25">
+      <c r="C8" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="D8" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="K8" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="L8" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="M8" s="16">
+        <v>15</v>
+      </c>
+      <c r="N8" s="17" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C9" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="D9" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="K9" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="L9" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="M9" s="16"/>
+      <c r="N9" s="16" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="3:14" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="C10" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D10" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="K10" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="L10" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="M10" s="17">
+        <v>300</v>
+      </c>
+      <c r="N10" s="17" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="3:14" ht="39" x14ac:dyDescent="0.25">
+      <c r="C11" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D11" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="K11" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="L11" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="M11" s="17">
+        <v>10</v>
+      </c>
+      <c r="N11" s="17" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:H4"/>
+    <mergeCell ref="J4:M4"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:H6"/>
+    <mergeCell ref="J6:M6"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:F16"/>
+  <dimension ref="B1:F16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -835,6 +1307,15 @@
     <col min="3" max="3" width="21.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C2" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="25"/>
+    </row>
     <row r="3" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C4" s="1" t="s">
@@ -851,23 +1332,23 @@
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C5" s="6"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="8"/>
+      <c r="C5" s="26"/>
+      <c r="D5" s="27"/>
+      <c r="E5" s="27"/>
+      <c r="F5" s="28"/>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="D6" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10" t="s">
+      <c r="E6" s="5"/>
+      <c r="F6" s="5" t="s">
         <v>6</v>
       </c>
     </row>
@@ -875,14 +1356,14 @@
       <c r="B7" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="D7" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11" t="s">
+      <c r="E7" s="6"/>
+      <c r="F7" s="6" t="s">
         <v>6</v>
       </c>
     </row>
@@ -890,14 +1371,14 @@
       <c r="B8" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="D8" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11" t="s">
+      <c r="E8" s="6"/>
+      <c r="F8" s="6" t="s">
         <v>6</v>
       </c>
     </row>
@@ -905,14 +1386,14 @@
       <c r="B9" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="C9" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="11" t="s">
+      <c r="D9" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11" t="s">
+      <c r="E9" s="6"/>
+      <c r="F9" s="6" t="s">
         <v>6</v>
       </c>
     </row>
@@ -920,100 +1401,101 @@
       <c r="B10" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="C10" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="11" t="s">
+      <c r="D10" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11" t="s">
+      <c r="E10" s="6"/>
+      <c r="F10" s="6" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C11" s="9" t="s">
+      <c r="C11" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D11" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" s="9">
+      <c r="D11" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="4">
         <v>50</v>
       </c>
-      <c r="F11" s="9" t="s">
+      <c r="F11" s="4" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C12" s="9" t="s">
+      <c r="C12" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" s="9">
+      <c r="D12" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" s="4">
         <v>15</v>
       </c>
-      <c r="F12" s="9" t="s">
+      <c r="F12" s="4" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C13" s="9" t="s">
+      <c r="C13" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D13" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" s="9">
+      <c r="D13" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" s="4">
         <v>15</v>
       </c>
-      <c r="F13" s="9" t="s">
+      <c r="F13" s="4" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C14" s="9" t="s">
+      <c r="C14" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D14" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E14" s="9">
+      <c r="D14" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" s="4">
         <v>300</v>
       </c>
-      <c r="F14" s="9" t="s">
+      <c r="F14" s="4" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C15" s="9" t="s">
+      <c r="C15" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D15" s="9" t="s">
+      <c r="D15" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9" t="s">
+      <c r="E15" s="4"/>
+      <c r="F15" s="4" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C16" s="9" t="s">
+      <c r="C16" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D16" s="9" t="s">
+      <c r="D16" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9" t="s">
+      <c r="E16" s="4"/>
+      <c r="F16" s="4" t="s">
         <v>6</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="C5:F5"/>
+    <mergeCell ref="C2:F2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -1022,10 +1504,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B4:F13"/>
+  <dimension ref="B2:F13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1033,6 +1515,15 @@
     <col min="3" max="3" width="21.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="2" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C3" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="25"/>
+    </row>
     <row r="4" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C5" s="1" t="s">
@@ -1049,23 +1540,23 @@
       </c>
     </row>
     <row r="6" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C6" s="3"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="5"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="22"/>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="D7" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10" t="s">
+      <c r="E7" s="5"/>
+      <c r="F7" s="5" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1073,14 +1564,14 @@
       <c r="B8" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="D8" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11" t="s">
+      <c r="E8" s="6"/>
+      <c r="F8" s="6" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1088,14 +1579,14 @@
       <c r="B9" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="C9" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="D9" s="11" t="s">
+      <c r="D9" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11" t="s">
+      <c r="E9" s="6"/>
+      <c r="F9" s="6" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1103,58 +1594,59 @@
       <c r="B10" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="C10" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="11" t="s">
+      <c r="D10" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11" t="s">
+      <c r="E10" s="6"/>
+      <c r="F10" s="6" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C11" s="9" t="s">
+      <c r="C11" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D11" s="9" t="s">
+      <c r="D11" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9" t="s">
+      <c r="E11" s="4"/>
+      <c r="F11" s="4" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C12" s="9" t="s">
+      <c r="C12" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D12" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" s="9">
-        <v>250</v>
-      </c>
-      <c r="F12" s="9" t="s">
+      <c r="D12" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" s="4">
+        <v>300</v>
+      </c>
+      <c r="F12" s="4" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C13" s="9" t="s">
+      <c r="C13" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D13" s="9" t="s">
+      <c r="D13" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9" t="s">
+      <c r="E13" s="4"/>
+      <c r="F13" s="4" t="s">
         <v>6</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="C6:F6"/>
+    <mergeCell ref="C3:F3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -1163,10 +1655,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B4:F9"/>
+  <dimension ref="B2:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7:F7"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1174,6 +1666,15 @@
     <col min="3" max="3" width="12.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="2" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C3" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="25"/>
+    </row>
     <row r="4" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C5" s="1" t="s">
@@ -1190,57 +1691,58 @@
       </c>
     </row>
     <row r="6" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C6" s="3"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="5"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="22"/>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="D7" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10" t="s">
+      <c r="E7" s="5"/>
+      <c r="F7" s="5" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="D8" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" s="9">
+      <c r="D8" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="4">
         <v>15</v>
       </c>
-      <c r="F8" s="9" t="s">
+      <c r="F8" s="4" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="D9" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E9" s="9">
+      <c r="D9" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="4">
         <v>50</v>
       </c>
-      <c r="F9" s="9" t="s">
+      <c r="F9" s="4" t="s">
         <v>6</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="C6:F6"/>
+    <mergeCell ref="C3:F3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1248,10 +1750,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:F10"/>
+  <dimension ref="B1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6:F6"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1259,6 +1761,15 @@
     <col min="3" max="3" width="15.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C2" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="25"/>
+    </row>
     <row r="3" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C4" s="1" t="s">
@@ -1275,23 +1786,23 @@
       </c>
     </row>
     <row r="5" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C5" s="3"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="5"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="22"/>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="D6" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10" t="s">
+      <c r="E6" s="5"/>
+      <c r="F6" s="5" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1299,60 +1810,61 @@
       <c r="B7" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="D7" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11" t="s">
+      <c r="E7" s="6"/>
+      <c r="F7" s="6" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D8" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" s="9">
+      <c r="D8" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="4">
         <v>15</v>
       </c>
-      <c r="F8" s="9" t="s">
+      <c r="F8" s="4" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="D9" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E9" s="9">
+      <c r="D9" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="4">
         <v>100</v>
       </c>
-      <c r="F9" s="9" t="s">
+      <c r="F9" s="4" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="D10" s="9" t="s">
+      <c r="D10" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9" t="s">
+      <c r="E10" s="4"/>
+      <c r="F10" s="4" t="s">
         <v>6</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="C5:F5"/>
+    <mergeCell ref="C2:F2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1360,10 +1872,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:F9"/>
+  <dimension ref="B1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6:F6"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1371,6 +1883,15 @@
     <col min="3" max="3" width="15.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C2" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="25"/>
+    </row>
     <row r="3" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C4" s="1" t="s">
@@ -1387,23 +1908,23 @@
       </c>
     </row>
     <row r="5" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C5" s="3"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="5"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="22"/>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="D6" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10" t="s">
+      <c r="E6" s="5"/>
+      <c r="F6" s="5" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1411,48 +1932,49 @@
       <c r="B7" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="D7" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11" t="s">
+      <c r="E7" s="6"/>
+      <c r="F7" s="6" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D8" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" s="9">
+      <c r="D8" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="4">
         <v>3</v>
       </c>
-      <c r="F8" s="9" t="s">
+      <c r="F8" s="4" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E9" s="9">
-        <v>50</v>
-      </c>
-      <c r="F9" s="9" t="s">
+      <c r="D9" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="4">
+        <v>80</v>
+      </c>
+      <c r="F9" s="4" t="s">
         <v>6</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="C5:F5"/>
+    <mergeCell ref="C2:F2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1460,10 +1982,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:F8"/>
+  <dimension ref="B1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1471,6 +1993,15 @@
     <col min="3" max="3" width="15.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C2" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="25"/>
+    </row>
     <row r="3" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C4" s="1" t="s">
@@ -1487,55 +2018,56 @@
       </c>
     </row>
     <row r="5" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C5" s="3"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="5"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="22"/>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="D6" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10" t="s">
+      <c r="E6" s="5"/>
+      <c r="F6" s="5" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="D7" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" s="9">
-        <v>10</v>
-      </c>
-      <c r="F7" s="9" t="s">
+      <c r="D7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="4">
+        <v>10</v>
+      </c>
+      <c r="F7" s="4" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="D8" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9" t="s">
+      <c r="E8" s="4"/>
+      <c r="F8" s="4" t="s">
         <v>6</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="C5:F5"/>
+    <mergeCell ref="C2:F2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1543,10 +2075,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:F27"/>
+  <dimension ref="B1:F27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1554,10 +2086,14 @@
     <col min="3" max="3" width="21.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C2" t="s">
+    <row r="1" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C2" s="23" t="s">
         <v>40</v>
       </c>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="25"/>
     </row>
     <row r="3" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1575,23 +2111,23 @@
       </c>
     </row>
     <row r="5" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C5" s="3"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="5"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="22"/>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="D6" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10" t="s">
+      <c r="E6" s="5"/>
+      <c r="F6" s="5" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1599,14 +2135,14 @@
       <c r="B7" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="D7" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11" t="s">
+      <c r="E7" s="6"/>
+      <c r="F7" s="6" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1614,21 +2150,25 @@
       <c r="B8" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="D8" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C12" t="s">
+      <c r="E8" s="6"/>
+      <c r="F8" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C12" s="23" t="s">
         <v>41</v>
       </c>
+      <c r="D12" s="24"/>
+      <c r="E12" s="24"/>
+      <c r="F12" s="25"/>
     </row>
     <row r="13" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="14" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1646,58 +2186,62 @@
       </c>
     </row>
     <row r="15" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C15" s="3"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="5"/>
+      <c r="C15" s="20"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="22"/>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>24</v>
       </c>
-      <c r="C16" s="10" t="s">
+      <c r="C16" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="D16" s="10" t="s">
+      <c r="D16" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10" t="s">
+      <c r="E16" s="5"/>
+      <c r="F16" s="5" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C17" s="9" t="s">
+      <c r="C17" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="D17" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E17" s="9">
+      <c r="D17" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="4">
         <v>50</v>
       </c>
-      <c r="F17" s="9" t="s">
+      <c r="F17" s="4" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C18" s="9" t="s">
+      <c r="C18" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="D18" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E18" s="9">
+      <c r="D18" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" s="4">
         <v>50</v>
       </c>
-      <c r="F18" s="9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C22" t="s">
+      <c r="F18" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="22" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C22" s="23" t="s">
         <v>43</v>
       </c>
+      <c r="D22" s="24"/>
+      <c r="E22" s="24"/>
+      <c r="F22" s="25"/>
     </row>
     <row r="23" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="24" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1715,58 +2259,474 @@
       </c>
     </row>
     <row r="25" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C25" s="3"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="5"/>
+      <c r="C25" s="20"/>
+      <c r="D25" s="21"/>
+      <c r="E25" s="21"/>
+      <c r="F25" s="22"/>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>24</v>
       </c>
-      <c r="C26" s="10" t="s">
+      <c r="C26" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="D26" s="10" t="s">
+      <c r="D26" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E26" s="10"/>
-      <c r="F26" s="10" t="s">
+      <c r="E26" s="5"/>
+      <c r="F26" s="5" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C27" s="9" t="s">
+      <c r="C27" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D27" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E27" s="9">
+      <c r="D27" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E27" s="4">
         <v>50</v>
       </c>
-      <c r="F27" s="9" t="s">
+      <c r="F27" s="4" t="s">
         <v>6</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="6">
     <mergeCell ref="C5:F5"/>
     <mergeCell ref="C15:F15"/>
     <mergeCell ref="C25:F25"/>
+    <mergeCell ref="C2:F2"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="C22:F22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="C3:N15"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="3" max="3" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.85546875" customWidth="1"/>
+    <col min="5" max="5" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5" customWidth="1"/>
+    <col min="10" max="10" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="5.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="3:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="3:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C4" s="32" t="s">
+        <v>80</v>
+      </c>
+      <c r="D4" s="33"/>
+      <c r="E4" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="F4" s="30"/>
+      <c r="G4" s="30"/>
+      <c r="H4" s="31"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="K4" s="24"/>
+      <c r="L4" s="24"/>
+      <c r="M4" s="25"/>
+      <c r="N4" s="10"/>
+    </row>
+    <row r="5" spans="3:14" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C5" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="G5" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="H5" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="I5" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="3:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C6" s="34"/>
+      <c r="D6" s="35"/>
+      <c r="E6" s="36"/>
+      <c r="F6" s="37"/>
+      <c r="G6" s="37"/>
+      <c r="H6" s="38"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="20"/>
+      <c r="K6" s="21"/>
+      <c r="L6" s="21"/>
+      <c r="M6" s="22"/>
+      <c r="N6" s="3"/>
+    </row>
+    <row r="7" spans="3:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C7" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="D7" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="E7" s="4"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="15"/>
+      <c r="J7" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="K7" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="L7" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="M7" s="16">
+        <v>15</v>
+      </c>
+      <c r="N7" s="16" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="3:14" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="C8" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D8" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H8" s="4">
+        <v>3</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J8" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="K8" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="L8" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="M8" s="17">
+        <v>3</v>
+      </c>
+      <c r="N8" s="17" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C9" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D9" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H9" s="4">
+        <v>15</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J9" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="K9" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="L9" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="M9" s="17">
+        <v>15</v>
+      </c>
+      <c r="N9" s="17" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="3:14" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="C10" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="D10" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H10" s="4">
+        <v>50</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J10" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="K10" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="L10" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="M10" s="17">
+        <v>50</v>
+      </c>
+      <c r="N10" s="17" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C11" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D11" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H11" s="4">
+        <v>15</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J11" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="K11" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="L11" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="M11" s="17">
+        <v>15</v>
+      </c>
+      <c r="N11" s="17" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="3:14" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="C12" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D12" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J12" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="K12" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="L12" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="M12" s="17"/>
+      <c r="N12" s="17" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C13" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D13" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H13" s="4">
+        <v>300</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J13" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="K13" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="L13" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="M13" s="17">
+        <v>300</v>
+      </c>
+      <c r="N13" s="17" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="3:14" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="C14" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D14" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J14" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="K14" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="L14" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="M14" s="17"/>
+      <c r="N14" s="17" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="3:14" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="C15" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D15" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="K15" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="L15" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="M15" s="17">
+        <v>10</v>
+      </c>
+      <c r="N15" s="17" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="J6:M6"/>
+    <mergeCell ref="E4:H4"/>
+    <mergeCell ref="J4:M4"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:H6"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/resources/Tablas.xlsx
+++ b/resources/Tablas.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="19995" windowHeight="8190" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="15120" windowHeight="8190" firstSheet="2" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="CONTROL" sheetId="1" r:id="rId1"/>
@@ -136,9 +136,6 @@
     <t>CODIGOACCION</t>
   </si>
   <si>
-    <t>ACTIVO</t>
-  </si>
-  <si>
     <t>IDERROR</t>
   </si>
   <si>
@@ -293,6 +290,9 @@
   </si>
   <si>
     <t>Ruc del cliente configurado en Monitor Cliente</t>
+  </si>
+  <si>
+    <t>FLAGACTIVO</t>
   </si>
 </sst>
 </file>
@@ -923,7 +923,7 @@
     <row r="1" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C2" s="23" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D2" s="24"/>
       <c r="E2" s="24"/>
@@ -996,7 +996,7 @@
         <v>11</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E9" s="4"/>
       <c r="F9" s="4" t="s">
@@ -1018,10 +1018,10 @@
     <row r="18" spans="3:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="19" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C19" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D19" s="7" t="s">
         <v>44</v>
-      </c>
-      <c r="D19" s="7" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="20" spans="3:4" x14ac:dyDescent="0.25">
@@ -1073,18 +1073,18 @@
     <row r="3" spans="3:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="3:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C4" s="32" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D4" s="33"/>
       <c r="E4" s="29" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F4" s="30"/>
       <c r="G4" s="30"/>
       <c r="H4" s="31"/>
       <c r="I4" s="11"/>
       <c r="J4" s="23" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K4" s="24"/>
       <c r="L4" s="24"/>
@@ -1096,10 +1096,10 @@
         <v>0</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F5" s="12" t="s">
         <v>0</v>
@@ -1114,7 +1114,7 @@
         <v>3</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K5" s="1" t="s">
         <v>0</v>
@@ -1145,10 +1145,10 @@
     </row>
     <row r="7" spans="3:14" ht="26.25" x14ac:dyDescent="0.25">
       <c r="C7" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D7" s="19" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E7" s="4"/>
       <c r="F7" s="15"/>
@@ -1156,7 +1156,7 @@
       <c r="H7" s="15"/>
       <c r="I7" s="15"/>
       <c r="J7" s="16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K7" s="16" t="s">
         <v>35</v>
@@ -1173,10 +1173,10 @@
     </row>
     <row r="8" spans="3:14" ht="39" x14ac:dyDescent="0.25">
       <c r="C8" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D8" s="19" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
@@ -1184,10 +1184,10 @@
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
       <c r="J8" s="16" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K8" s="16" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L8" s="16" t="s">
         <v>10</v>
@@ -1201,10 +1201,10 @@
     </row>
     <row r="9" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C9" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D9" s="19" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
@@ -1212,7 +1212,7 @@
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
       <c r="J9" s="16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K9" s="16" t="s">
         <v>29</v>
@@ -1227,10 +1227,10 @@
     </row>
     <row r="10" spans="3:14" ht="26.25" x14ac:dyDescent="0.25">
       <c r="C10" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D10" s="19" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
@@ -1238,7 +1238,7 @@
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
       <c r="J10" s="16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K10" s="17" t="s">
         <v>21</v>
@@ -1255,10 +1255,10 @@
     </row>
     <row r="11" spans="3:14" ht="39" x14ac:dyDescent="0.25">
       <c r="C11" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D11" s="19" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
@@ -1266,7 +1266,7 @@
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
       <c r="J11" s="16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K11" s="17" t="s">
         <v>34</v>
@@ -1310,7 +1310,7 @@
     <row r="1" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C2" s="23" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D2" s="24"/>
       <c r="E2" s="24"/>
@@ -1506,8 +1506,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:F13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1518,7 +1518,7 @@
     <row r="2" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C3" s="23" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D3" s="24"/>
       <c r="E3" s="24"/>
@@ -1658,7 +1658,7 @@
   <dimension ref="B2:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="F9" sqref="C3:F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1669,7 +1669,7 @@
     <row r="2" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C3" s="23" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D3" s="24"/>
       <c r="E3" s="24"/>
@@ -1752,8 +1752,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:F10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1764,7 +1764,7 @@
     <row r="1" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C2" s="23" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D2" s="24"/>
       <c r="E2" s="24"/>
@@ -1851,7 +1851,7 @@
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C10" s="4" t="s">
-        <v>37</v>
+        <v>88</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>8</v>
@@ -1875,7 +1875,7 @@
   <dimension ref="B1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1886,7 +1886,7 @@
     <row r="1" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C2" s="23" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D2" s="24"/>
       <c r="E2" s="24"/>
@@ -1918,7 +1918,7 @@
         <v>24</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>4</v>
@@ -1985,7 +1985,7 @@
   <dimension ref="B1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1996,7 +1996,7 @@
     <row r="1" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C2" s="23" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D2" s="24"/>
       <c r="E2" s="24"/>
@@ -2054,7 +2054,7 @@
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C8" s="4" t="s">
-        <v>37</v>
+        <v>88</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>8</v>
@@ -2077,8 +2077,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:F27"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2089,7 +2089,7 @@
     <row r="1" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C2" s="23" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D2" s="24"/>
       <c r="E2" s="24"/>
@@ -2136,7 +2136,7 @@
         <v>25</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>4</v>
@@ -2151,7 +2151,7 @@
         <v>25</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>4</v>
@@ -2164,7 +2164,7 @@
     <row r="11" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="12" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C12" s="23" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D12" s="24"/>
       <c r="E12" s="24"/>
@@ -2196,7 +2196,7 @@
         <v>24</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D16" s="5" t="s">
         <v>4</v>
@@ -2222,7 +2222,7 @@
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C18" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D18" s="4" t="s">
         <v>10</v>
@@ -2237,7 +2237,7 @@
     <row r="21" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="22" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C22" s="23" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D22" s="24"/>
       <c r="E22" s="24"/>
@@ -2269,7 +2269,7 @@
         <v>24</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D26" s="5" t="s">
         <v>4</v>
@@ -2333,18 +2333,18 @@
     <row r="3" spans="3:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="3:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C4" s="32" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D4" s="33"/>
       <c r="E4" s="29" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F4" s="30"/>
       <c r="G4" s="30"/>
       <c r="H4" s="31"/>
       <c r="I4" s="11"/>
       <c r="J4" s="23" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K4" s="24"/>
       <c r="L4" s="24"/>
@@ -2356,10 +2356,10 @@
         <v>0</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F5" s="12" t="s">
         <v>0</v>
@@ -2374,7 +2374,7 @@
         <v>3</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K5" s="1" t="s">
         <v>0</v>
@@ -2405,10 +2405,10 @@
     </row>
     <row r="7" spans="3:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C7" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D7" s="18" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E7" s="4"/>
       <c r="F7" s="15"/>
@@ -2416,10 +2416,10 @@
       <c r="H7" s="15"/>
       <c r="I7" s="15"/>
       <c r="J7" s="16" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K7" s="16" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L7" s="16" t="s">
         <v>10</v>
@@ -2433,13 +2433,13 @@
     </row>
     <row r="8" spans="3:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="C8" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D8" s="18" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F8" s="4" t="s">
         <v>36</v>
@@ -2454,7 +2454,7 @@
         <v>6</v>
       </c>
       <c r="J8" s="16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K8" s="17" t="s">
         <v>36</v>
@@ -2471,13 +2471,13 @@
     </row>
     <row r="9" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C9" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D9" s="18" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F9" s="4" t="s">
         <v>19</v>
@@ -2492,7 +2492,7 @@
         <v>6</v>
       </c>
       <c r="J9" s="16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K9" s="17" t="s">
         <v>19</v>
@@ -2509,13 +2509,13 @@
     </row>
     <row r="10" spans="3:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="C10" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F10" s="4" t="s">
         <v>18</v>
@@ -2530,7 +2530,7 @@
         <v>6</v>
       </c>
       <c r="J10" s="16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K10" s="17" t="s">
         <v>18</v>
@@ -2547,13 +2547,13 @@
     </row>
     <row r="11" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C11" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D11" s="18" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F11" s="4" t="s">
         <v>20</v>
@@ -2568,7 +2568,7 @@
         <v>6</v>
       </c>
       <c r="J11" s="16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K11" s="17" t="s">
         <v>20</v>
@@ -2585,16 +2585,16 @@
     </row>
     <row r="12" spans="3:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="C12" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D12" s="18" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G12" s="4" t="s">
         <v>4</v>
@@ -2604,7 +2604,7 @@
         <v>6</v>
       </c>
       <c r="J12" s="16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K12" s="17" t="s">
         <v>17</v>
@@ -2619,16 +2619,16 @@
     </row>
     <row r="13" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C13" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D13" s="18" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G13" s="4" t="s">
         <v>10</v>
@@ -2640,7 +2640,7 @@
         <v>6</v>
       </c>
       <c r="J13" s="16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K13" s="17" t="s">
         <v>21</v>
@@ -2657,29 +2657,29 @@
     </row>
     <row r="14" spans="3:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="C14" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D14" s="18" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F14" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="G14" s="4" t="s">
         <v>69</v>
-      </c>
-      <c r="G14" s="4" t="s">
-        <v>70</v>
       </c>
       <c r="H14" s="4"/>
       <c r="I14" s="4" t="s">
         <v>6</v>
       </c>
       <c r="J14" s="16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K14" s="17" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="L14" s="17" t="s">
         <v>13</v>
@@ -2691,10 +2691,10 @@
     </row>
     <row r="15" spans="3:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="C15" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D15" s="18" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
@@ -2702,7 +2702,7 @@
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
       <c r="J15" s="16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K15" s="17" t="s">
         <v>34</v>

--- a/resources/Tablas.xlsx
+++ b/resources/Tablas.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="15120" windowHeight="8190" firstSheet="2" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="15120" windowHeight="8190" firstSheet="5" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="CONTROL" sheetId="1" r:id="rId1"/>
@@ -1299,7 +1299,7 @@
   <dimension ref="B1:F16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1437,7 +1437,7 @@
         <v>15</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.25">
@@ -1451,7 +1451,7 @@
         <v>15</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.25">
@@ -1752,7 +1752,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:F10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
@@ -2311,8 +2311,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C3:N15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2489,7 +2489,7 @@
         <v>15</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="J9" s="16" t="s">
         <v>51</v>
@@ -2565,7 +2565,7 @@
         <v>15</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="J11" s="16" t="s">
         <v>51</v>
@@ -2580,7 +2580,7 @@
         <v>15</v>
       </c>
       <c r="N11" s="17" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="3:14" ht="25.5" x14ac:dyDescent="0.25">
@@ -2637,7 +2637,7 @@
         <v>300</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="J13" s="16" t="s">
         <v>51</v>
@@ -2652,7 +2652,7 @@
         <v>300</v>
       </c>
       <c r="N13" s="17" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="3:14" ht="25.5" x14ac:dyDescent="0.25">
